--- a/days.xlsx
+++ b/days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340A0ED-9F90-4B57-A1A6-5E1DF29A9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3E8BF-DE2F-4932-8B48-9AD015539399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作打卡" sheetId="1" r:id="rId1"/>
@@ -3681,27 +3681,27 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3976,7 +3976,7 @@
       <c r="A2" s="6">
         <v>44991</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="188" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3996,7 +3996,7 @@
       <c r="A3" s="6">
         <v>44992</v>
       </c>
-      <c r="B3" s="191"/>
+      <c r="B3" s="189"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4030,10 +4030,10 @@
       <c r="A5" s="6">
         <v>44994</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="193" t="s">
+      <c r="C5" s="191" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7"/>
@@ -4048,8 +4048,8 @@
       <c r="A6" s="6">
         <v>44995</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="194"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="192"/>
       <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
@@ -4061,8 +4061,8 @@
       <c r="A7" s="6">
         <v>44996</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="194"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="A8" s="6">
         <v>44997</v>
       </c>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="193" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="186"/>
@@ -4190,7 +4190,7 @@
       <c r="A15" s="6">
         <v>45004</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="193" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="186"/>
@@ -4314,7 +4314,7 @@
       <c r="A22" s="6">
         <v>45011</v>
       </c>
-      <c r="B22" s="189" t="s">
+      <c r="B22" s="193" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="186"/>
@@ -5118,7 +5118,7 @@
       <c r="A71" s="6">
         <v>45060</v>
       </c>
-      <c r="B71" s="188" t="s">
+      <c r="B71" s="194" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="186"/>
@@ -5231,7 +5231,7 @@
       <c r="A78" s="6">
         <v>45067</v>
       </c>
-      <c r="B78" s="188" t="s">
+      <c r="B78" s="194" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="186"/>
@@ -12241,16 +12241,60 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B289:H289"/>
-    <mergeCell ref="B295:H295"/>
-    <mergeCell ref="B296:H296"/>
-    <mergeCell ref="B302:H302"/>
-    <mergeCell ref="B303:H303"/>
-    <mergeCell ref="B211:H211"/>
-    <mergeCell ref="B212:H212"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B219:H219"/>
-    <mergeCell ref="B190:H190"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="B141:H141"/>
+    <mergeCell ref="B142:H142"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B261:H261"/>
+    <mergeCell ref="B240:H240"/>
+    <mergeCell ref="B246:H246"/>
+    <mergeCell ref="B247:H247"/>
+    <mergeCell ref="B253:H253"/>
+    <mergeCell ref="B254:H254"/>
+    <mergeCell ref="B225:H225"/>
+    <mergeCell ref="B226:H226"/>
+    <mergeCell ref="B232:H232"/>
+    <mergeCell ref="B233:H233"/>
+    <mergeCell ref="B239:H239"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B109:H109"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="B95:H95"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B102:H102"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B184:H184"/>
     <mergeCell ref="B288:H288"/>
     <mergeCell ref="B275:H275"/>
     <mergeCell ref="B281:H281"/>
@@ -12258,65 +12302,21 @@
     <mergeCell ref="B267:H267"/>
     <mergeCell ref="B268:H268"/>
     <mergeCell ref="B274:H274"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B184:H184"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="B219:H219"/>
+    <mergeCell ref="B190:H190"/>
     <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="B95:H95"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B109:H109"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B225:H225"/>
-    <mergeCell ref="B226:H226"/>
-    <mergeCell ref="B232:H232"/>
-    <mergeCell ref="B233:H233"/>
-    <mergeCell ref="B239:H239"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B261:H261"/>
-    <mergeCell ref="B240:H240"/>
-    <mergeCell ref="B246:H246"/>
-    <mergeCell ref="B247:H247"/>
-    <mergeCell ref="B253:H253"/>
-    <mergeCell ref="B254:H254"/>
     <mergeCell ref="B191:H191"/>
     <mergeCell ref="B197:H197"/>
     <mergeCell ref="B198:H198"/>
     <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="B127:H127"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="B141:H141"/>
-    <mergeCell ref="B142:H142"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B289:H289"/>
+    <mergeCell ref="B295:H295"/>
+    <mergeCell ref="B296:H296"/>
+    <mergeCell ref="B302:H302"/>
+    <mergeCell ref="B303:H303"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25131,7 +25131,7 @@
   </sheetPr>
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
@@ -25179,7 +25179,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A2" s="195">
+      <c r="A2" s="198">
         <v>1</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -25214,7 +25214,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A3" s="194"/>
+      <c r="A3" s="192"/>
       <c r="B3" s="59" t="s">
         <v>348</v>
       </c>
@@ -25250,7 +25250,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A4" s="194"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="59" t="s">
         <v>353</v>
       </c>
@@ -25283,7 +25283,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A5" s="194"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="59" t="s">
         <v>356</v>
       </c>
@@ -25316,7 +25316,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A6" s="194"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="61" t="s">
         <v>363</v>
       </c>
@@ -25345,7 +25345,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A7" s="196"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="63" t="s">
         <v>367</v>
       </c>
@@ -25370,7 +25370,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A8" s="195">
+      <c r="A8" s="198">
         <v>2</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -25408,7 +25408,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A9" s="194"/>
+      <c r="A9" s="192"/>
       <c r="B9" s="59" t="s">
         <v>368</v>
       </c>
@@ -25441,7 +25441,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A10" s="194"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="59" t="s">
         <v>375</v>
       </c>
@@ -25474,7 +25474,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A11" s="194"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="59" t="s">
         <v>372</v>
       </c>
@@ -25507,7 +25507,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A12" s="194"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="61" t="s">
         <v>381</v>
       </c>
@@ -25536,7 +25536,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A13" s="196"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="61"/>
       <c r="C13" s="184"/>
       <c r="D13" s="62"/>
@@ -25716,7 +25716,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A19" s="198"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="74"/>
       <c r="C19" s="184"/>
       <c r="D19" s="64"/>
@@ -25737,7 +25737,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A20" s="199">
+      <c r="A20" s="200">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -25902,7 +25902,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A25" s="198"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="78" t="s">
         <v>367</v>
       </c>
@@ -25934,7 +25934,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A26" s="199">
+      <c r="A26" s="200">
         <v>5</v>
       </c>
       <c r="B26" s="81" t="s">
@@ -26097,7 +26097,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A31" s="198"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="78" t="s">
         <v>367</v>
       </c>
@@ -26121,7 +26121,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28.2" thickBot="1">
+    <row r="32" spans="1:13" ht="16.2" thickBot="1">
       <c r="A32" s="197">
         <v>6</v>
       </c>
@@ -26291,7 +26291,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A37" s="198"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="61"/>
       <c r="C37" s="184" t="e">
         <v>#VALUE!</v>
@@ -26463,7 +26463,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A43" s="198"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="61"/>
       <c r="C43" s="184"/>
       <c r="D43" s="73"/>
@@ -26647,7 +26647,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A49" s="198"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="61"/>
       <c r="C49" s="184" t="e">
         <v>#VALUE!</v>
@@ -26770,7 +26770,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.2" thickBot="1">
+    <row r="53" spans="1:13" ht="16.2" thickBot="1">
       <c r="A53" s="186"/>
       <c r="B53" s="59" t="s">
         <v>355</v>
@@ -26825,7 +26825,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A55" s="198"/>
+      <c r="A55" s="196"/>
       <c r="B55" s="61"/>
       <c r="C55" s="184"/>
       <c r="D55" s="73"/>
@@ -27007,7 +27007,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A61" s="198"/>
+      <c r="A61" s="196"/>
       <c r="B61" s="61" t="s">
         <v>494</v>
       </c>
@@ -27187,7 +27187,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A67" s="198"/>
+      <c r="A67" s="196"/>
       <c r="B67" s="61"/>
       <c r="C67" s="184"/>
       <c r="D67" s="73"/>
@@ -27369,7 +27369,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A73" s="198"/>
+      <c r="A73" s="196"/>
       <c r="B73" s="1"/>
       <c r="C73" s="184"/>
       <c r="E73" s="1"/>
@@ -27543,7 +27543,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A79" s="198"/>
+      <c r="A79" s="196"/>
       <c r="B79" s="103"/>
       <c r="C79" s="184"/>
       <c r="D79" s="104"/>
@@ -27729,7 +27729,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A85" s="198"/>
+      <c r="A85" s="196"/>
       <c r="B85" s="103" t="s">
         <v>367</v>
       </c>
@@ -27917,7 +27917,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A91" s="198"/>
+      <c r="A91" s="196"/>
       <c r="B91" s="1" t="s">
         <v>367</v>
       </c>
@@ -28103,7 +28103,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A97" s="198"/>
+      <c r="A97" s="196"/>
       <c r="B97" s="111" t="s">
         <v>367</v>
       </c>
@@ -28289,7 +28289,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A103" s="198"/>
+      <c r="A103" s="196"/>
       <c r="B103" s="111"/>
       <c r="C103" s="184" t="e">
         <v>#VALUE!</v>
@@ -28312,7 +28312,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A104" s="200">
+      <c r="A104" s="195">
         <v>18</v>
       </c>
       <c r="B104" s="112" t="s">
@@ -28475,7 +28475,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A109" s="198"/>
+      <c r="A109" s="196"/>
       <c r="B109" s="103" t="s">
         <v>367</v>
       </c>
@@ -28651,7 +28651,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A115" s="198"/>
+      <c r="A115" s="196"/>
       <c r="B115" s="1" t="s">
         <v>367</v>
       </c>
@@ -28663,7 +28663,7 @@
       <c r="F115" s="183"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:13" ht="28.2" thickBot="1">
+    <row r="116" spans="1:13" ht="14.4" thickBot="1">
       <c r="A116" s="197">
         <v>20</v>
       </c>
@@ -28757,7 +28757,7 @@
       <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A121" s="198"/>
+      <c r="A121" s="196"/>
       <c r="B121" s="103"/>
       <c r="C121" s="184"/>
       <c r="D121" s="110"/>
@@ -28872,7 +28872,7 @@
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A127" s="198"/>
+      <c r="A127" s="196"/>
       <c r="B127" s="103" t="s">
         <v>367</v>
       </c>
@@ -28886,6 +28886,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A103"/>
     <mergeCell ref="A104:A109"/>
     <mergeCell ref="A110:A115"/>
     <mergeCell ref="A116:A121"/>
@@ -28897,16 +28907,6 @@
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="A74:A79"/>
     <mergeCell ref="A80:A85"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39830,8 +39830,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -40672,7 +40672,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="122" t="s">
         <v>620</v>
       </c>
@@ -40698,7 +40698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="119" t="s">
         <v>347</v>
       </c>
@@ -40706,25 +40706,25 @@
         <v>44983</v>
       </c>
       <c r="C34" s="121">
+        <v>44984</v>
+      </c>
+      <c r="D34" s="121">
         <v>44985</v>
       </c>
-      <c r="D34" s="139" t="s">
+      <c r="E34" s="139" t="s">
         <v>621</v>
       </c>
-      <c r="E34" s="121">
+      <c r="F34" s="121">
         <v>44986</v>
       </c>
-      <c r="F34" s="121">
+      <c r="G34" s="121">
         <v>45353</v>
       </c>
-      <c r="G34" s="121">
+      <c r="H34" s="121">
         <v>44988</v>
       </c>
-      <c r="H34" s="121">
-        <v>44989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18">
+    </row>
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="122" t="s">
         <v>620</v>
       </c>
@@ -40750,33 +40750,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="119" t="s">
         <v>347</v>
       </c>
       <c r="B36" s="121">
+        <v>44989</v>
+      </c>
+      <c r="C36" s="121">
         <v>44990</v>
       </c>
-      <c r="C36" s="121">
+      <c r="D36" s="121">
         <v>44991</v>
       </c>
-      <c r="D36" s="140">
+      <c r="E36" s="140">
         <v>44992</v>
       </c>
-      <c r="E36" s="121">
+      <c r="F36" s="121">
         <v>44993</v>
       </c>
-      <c r="F36" s="121">
+      <c r="G36" s="121">
         <v>44994</v>
-      </c>
-      <c r="G36" s="121">
-        <v>44995</v>
       </c>
       <c r="H36" s="121">
         <v>44995</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="18">
+      <c r="I36" s="121"/>
+    </row>
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="122" t="s">
         <v>620</v>
       </c>
@@ -40802,7 +40803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18">
+    <row r="38" spans="1:9" ht="18">
       <c r="A38" s="119"/>
       <c r="B38" s="121"/>
       <c r="C38" s="121"/>
@@ -40812,7 +40813,7 @@
       <c r="G38" s="121"/>
       <c r="H38" s="121"/>
     </row>
-    <row r="39" spans="1:8" ht="18">
+    <row r="39" spans="1:9" ht="18">
       <c r="A39" s="122"/>
       <c r="B39" s="124"/>
       <c r="C39" s="124"/>

--- a/days.xlsx
+++ b/days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3E8BF-DE2F-4932-8B48-9AD015539399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA691A0-B251-4933-B11F-BE3DEA64A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作打卡" sheetId="1" r:id="rId1"/>
@@ -3676,32 +3676,32 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3976,7 +3976,7 @@
       <c r="A2" s="6">
         <v>44991</v>
       </c>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="190" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3996,7 +3996,7 @@
       <c r="A3" s="6">
         <v>44992</v>
       </c>
-      <c r="B3" s="189"/>
+      <c r="B3" s="191"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4030,10 +4030,10 @@
       <c r="A5" s="6">
         <v>44994</v>
       </c>
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="193" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7"/>
@@ -4048,8 +4048,8 @@
       <c r="A6" s="6">
         <v>44995</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="192"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
@@ -4061,8 +4061,8 @@
       <c r="A7" s="6">
         <v>44996</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="192"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="A8" s="6">
         <v>44997</v>
       </c>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="189" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="186"/>
@@ -4190,7 +4190,7 @@
       <c r="A15" s="6">
         <v>45004</v>
       </c>
-      <c r="B15" s="193" t="s">
+      <c r="B15" s="189" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="186"/>
@@ -4314,7 +4314,7 @@
       <c r="A22" s="6">
         <v>45011</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="189" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="186"/>
@@ -5005,7 +5005,7 @@
       <c r="A64" s="6">
         <v>45053</v>
       </c>
-      <c r="B64" s="187" t="s">
+      <c r="B64" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C64" s="186"/>
@@ -5053,7 +5053,7 @@
       <c r="A67" s="6">
         <v>45056</v>
       </c>
-      <c r="B67" s="185" t="s">
+      <c r="B67" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="186"/>
@@ -5118,7 +5118,7 @@
       <c r="A71" s="6">
         <v>45060</v>
       </c>
-      <c r="B71" s="194" t="s">
+      <c r="B71" s="188" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="186"/>
@@ -5166,7 +5166,7 @@
       <c r="A74" s="6">
         <v>45063</v>
       </c>
-      <c r="B74" s="185" t="s">
+      <c r="B74" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="186"/>
@@ -5231,7 +5231,7 @@
       <c r="A78" s="6">
         <v>45067</v>
       </c>
-      <c r="B78" s="194" t="s">
+      <c r="B78" s="188" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="186"/>
@@ -5279,7 +5279,7 @@
       <c r="A81" s="6">
         <v>45070</v>
       </c>
-      <c r="B81" s="185" t="s">
+      <c r="B81" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="186"/>
@@ -5344,7 +5344,7 @@
       <c r="A85" s="6">
         <v>45074</v>
       </c>
-      <c r="B85" s="187" t="s">
+      <c r="B85" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="186"/>
@@ -5392,7 +5392,7 @@
       <c r="A88" s="6">
         <v>45077</v>
       </c>
-      <c r="B88" s="185" t="s">
+      <c r="B88" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C88" s="186"/>
@@ -5457,7 +5457,7 @@
       <c r="A92" s="6">
         <v>45081</v>
       </c>
-      <c r="B92" s="187" t="s">
+      <c r="B92" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C92" s="186"/>
@@ -5505,7 +5505,7 @@
       <c r="A95" s="6">
         <v>45084</v>
       </c>
-      <c r="B95" s="185" t="s">
+      <c r="B95" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C95" s="186"/>
@@ -5570,7 +5570,7 @@
       <c r="A99" s="6">
         <v>45088</v>
       </c>
-      <c r="B99" s="187" t="s">
+      <c r="B99" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C99" s="186"/>
@@ -5618,7 +5618,7 @@
       <c r="A102" s="6">
         <v>45091</v>
       </c>
-      <c r="B102" s="185" t="s">
+      <c r="B102" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C102" s="186"/>
@@ -5683,7 +5683,7 @@
       <c r="A106" s="6">
         <v>45095</v>
       </c>
-      <c r="B106" s="187" t="s">
+      <c r="B106" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C106" s="186"/>
@@ -5731,7 +5731,7 @@
       <c r="A109" s="6">
         <v>45098</v>
       </c>
-      <c r="B109" s="185" t="s">
+      <c r="B109" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C109" s="186"/>
@@ -5796,7 +5796,7 @@
       <c r="A113" s="6">
         <v>45102</v>
       </c>
-      <c r="B113" s="187" t="s">
+      <c r="B113" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="186"/>
@@ -5844,7 +5844,7 @@
       <c r="A116" s="6">
         <v>45105</v>
       </c>
-      <c r="B116" s="185" t="s">
+      <c r="B116" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="186"/>
@@ -5909,7 +5909,7 @@
       <c r="A120" s="6">
         <v>45109</v>
       </c>
-      <c r="B120" s="187" t="s">
+      <c r="B120" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C120" s="186"/>
@@ -5957,7 +5957,7 @@
       <c r="A123" s="6">
         <v>45112</v>
       </c>
-      <c r="B123" s="185" t="s">
+      <c r="B123" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C123" s="186"/>
@@ -6022,7 +6022,7 @@
       <c r="A127" s="6">
         <v>45116</v>
       </c>
-      <c r="B127" s="187" t="s">
+      <c r="B127" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C127" s="186"/>
@@ -6036,7 +6036,7 @@
       <c r="A128" s="6">
         <v>45117</v>
       </c>
-      <c r="B128" s="185" t="s">
+      <c r="B128" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="186"/>
@@ -6165,7 +6165,7 @@
       <c r="A134" s="6">
         <v>45123</v>
       </c>
-      <c r="B134" s="187" t="s">
+      <c r="B134" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="186"/>
@@ -6179,7 +6179,7 @@
       <c r="A135" s="6">
         <v>45124</v>
       </c>
-      <c r="B135" s="185" t="s">
+      <c r="B135" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C135" s="186"/>
@@ -6308,7 +6308,7 @@
       <c r="A141" s="6">
         <v>45130</v>
       </c>
-      <c r="B141" s="187" t="s">
+      <c r="B141" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C141" s="186"/>
@@ -6322,7 +6322,7 @@
       <c r="A142" s="6">
         <v>45131</v>
       </c>
-      <c r="B142" s="185" t="s">
+      <c r="B142" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C142" s="186"/>
@@ -6438,7 +6438,7 @@
       <c r="A148" s="6">
         <v>45137</v>
       </c>
-      <c r="B148" s="187" t="s">
+      <c r="B148" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C148" s="186"/>
@@ -6452,7 +6452,7 @@
       <c r="A149" s="6">
         <v>45138</v>
       </c>
-      <c r="B149" s="185" t="s">
+      <c r="B149" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C149" s="186"/>
@@ -6581,7 +6581,7 @@
       <c r="A155" s="6">
         <v>45144</v>
       </c>
-      <c r="B155" s="187" t="s">
+      <c r="B155" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C155" s="186"/>
@@ -6595,7 +6595,7 @@
       <c r="A156" s="6">
         <v>45145</v>
       </c>
-      <c r="B156" s="185" t="s">
+      <c r="B156" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C156" s="186"/>
@@ -6724,7 +6724,7 @@
       <c r="A162" s="6">
         <v>45151</v>
       </c>
-      <c r="B162" s="187" t="s">
+      <c r="B162" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C162" s="186"/>
@@ -6738,7 +6738,7 @@
       <c r="A163" s="6">
         <v>45152</v>
       </c>
-      <c r="B163" s="185" t="s">
+      <c r="B163" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="186"/>
@@ -6827,7 +6827,7 @@
       <c r="A169" s="6">
         <v>45158</v>
       </c>
-      <c r="B169" s="187" t="s">
+      <c r="B169" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C169" s="186"/>
@@ -6841,7 +6841,7 @@
       <c r="A170" s="6">
         <v>45159</v>
       </c>
-      <c r="B170" s="185" t="s">
+      <c r="B170" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C170" s="186"/>
@@ -6920,7 +6920,7 @@
       <c r="A176" s="6">
         <v>45165</v>
       </c>
-      <c r="B176" s="187" t="s">
+      <c r="B176" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C176" s="186"/>
@@ -6934,7 +6934,7 @@
       <c r="A177" s="6">
         <v>45166</v>
       </c>
-      <c r="B177" s="185" t="s">
+      <c r="B177" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C177" s="186"/>
@@ -7013,7 +7013,7 @@
       <c r="A183" s="6">
         <v>45172</v>
       </c>
-      <c r="B183" s="187" t="s">
+      <c r="B183" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C183" s="186"/>
@@ -7027,7 +7027,7 @@
       <c r="A184" s="6">
         <v>45173</v>
       </c>
-      <c r="B184" s="185" t="s">
+      <c r="B184" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C184" s="186"/>
@@ -7126,7 +7126,7 @@
       <c r="A190" s="6">
         <v>45179</v>
       </c>
-      <c r="B190" s="187" t="s">
+      <c r="B190" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C190" s="186"/>
@@ -7140,7 +7140,7 @@
       <c r="A191" s="6">
         <v>45180</v>
       </c>
-      <c r="B191" s="185" t="s">
+      <c r="B191" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C191" s="186"/>
@@ -7239,7 +7239,7 @@
       <c r="A197" s="6">
         <v>45186</v>
       </c>
-      <c r="B197" s="187" t="s">
+      <c r="B197" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C197" s="186"/>
@@ -7253,7 +7253,7 @@
       <c r="A198" s="6">
         <v>45187</v>
       </c>
-      <c r="B198" s="185" t="s">
+      <c r="B198" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C198" s="186"/>
@@ -7369,7 +7369,7 @@
       <c r="A204" s="6">
         <v>45193</v>
       </c>
-      <c r="B204" s="187" t="s">
+      <c r="B204" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C204" s="186"/>
@@ -7383,7 +7383,7 @@
       <c r="A205" s="6">
         <v>45194</v>
       </c>
-      <c r="B205" s="185" t="s">
+      <c r="B205" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C205" s="186"/>
@@ -7506,7 +7506,7 @@
       <c r="A211" s="6">
         <v>45200</v>
       </c>
-      <c r="B211" s="187" t="s">
+      <c r="B211" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C211" s="186"/>
@@ -7520,7 +7520,7 @@
       <c r="A212" s="6">
         <v>45201</v>
       </c>
-      <c r="B212" s="185" t="s">
+      <c r="B212" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C212" s="186"/>
@@ -7624,7 +7624,7 @@
       <c r="A218" s="6">
         <v>45207</v>
       </c>
-      <c r="B218" s="187" t="s">
+      <c r="B218" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C218" s="186"/>
@@ -7638,7 +7638,7 @@
       <c r="A219" s="6">
         <v>45208</v>
       </c>
-      <c r="B219" s="185" t="s">
+      <c r="B219" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C219" s="186"/>
@@ -7732,7 +7732,7 @@
       <c r="A225" s="6">
         <v>45214</v>
       </c>
-      <c r="B225" s="187" t="s">
+      <c r="B225" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C225" s="186"/>
@@ -7746,7 +7746,7 @@
       <c r="A226" s="6">
         <v>45215</v>
       </c>
-      <c r="B226" s="185" t="s">
+      <c r="B226" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C226" s="186"/>
@@ -7850,7 +7850,7 @@
       <c r="A232" s="6">
         <v>45221</v>
       </c>
-      <c r="B232" s="187" t="s">
+      <c r="B232" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C232" s="186"/>
@@ -7864,7 +7864,7 @@
       <c r="A233" s="6">
         <v>45222</v>
       </c>
-      <c r="B233" s="185" t="s">
+      <c r="B233" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C233" s="186"/>
@@ -7958,7 +7958,7 @@
       <c r="A239" s="6">
         <v>45228</v>
       </c>
-      <c r="B239" s="187" t="s">
+      <c r="B239" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C239" s="186"/>
@@ -7972,7 +7972,7 @@
       <c r="A240" s="6">
         <v>45229</v>
       </c>
-      <c r="B240" s="185" t="s">
+      <c r="B240" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C240" s="186"/>
@@ -8056,7 +8056,7 @@
       <c r="A246" s="6">
         <v>45235</v>
       </c>
-      <c r="B246" s="187" t="s">
+      <c r="B246" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C246" s="186"/>
@@ -8070,7 +8070,7 @@
       <c r="A247" s="6">
         <v>45236</v>
       </c>
-      <c r="B247" s="185" t="s">
+      <c r="B247" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C247" s="186"/>
@@ -8154,7 +8154,7 @@
       <c r="A253" s="6">
         <v>45242</v>
       </c>
-      <c r="B253" s="187" t="s">
+      <c r="B253" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C253" s="186"/>
@@ -8168,7 +8168,7 @@
       <c r="A254" s="6">
         <v>45243</v>
       </c>
-      <c r="B254" s="185" t="s">
+      <c r="B254" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C254" s="186"/>
@@ -8252,7 +8252,7 @@
       <c r="A260" s="6">
         <v>45249</v>
       </c>
-      <c r="B260" s="187" t="s">
+      <c r="B260" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C260" s="186"/>
@@ -8266,7 +8266,7 @@
       <c r="A261" s="6">
         <v>45250</v>
       </c>
-      <c r="B261" s="185" t="s">
+      <c r="B261" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C261" s="186"/>
@@ -8330,7 +8330,7 @@
       <c r="A267" s="6">
         <v>45256</v>
       </c>
-      <c r="B267" s="187" t="s">
+      <c r="B267" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C267" s="186"/>
@@ -8344,7 +8344,7 @@
       <c r="A268" s="6">
         <v>45257</v>
       </c>
-      <c r="B268" s="185" t="s">
+      <c r="B268" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C268" s="186"/>
@@ -8408,7 +8408,7 @@
       <c r="A274" s="6">
         <v>45263</v>
       </c>
-      <c r="B274" s="187" t="s">
+      <c r="B274" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C274" s="186"/>
@@ -8422,7 +8422,7 @@
       <c r="A275" s="6">
         <v>45264</v>
       </c>
-      <c r="B275" s="185" t="s">
+      <c r="B275" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C275" s="186"/>
@@ -8486,7 +8486,7 @@
       <c r="A281" s="6">
         <v>45270</v>
       </c>
-      <c r="B281" s="187" t="s">
+      <c r="B281" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C281" s="186"/>
@@ -8500,7 +8500,7 @@
       <c r="A282" s="6">
         <v>45271</v>
       </c>
-      <c r="B282" s="185" t="s">
+      <c r="B282" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C282" s="186"/>
@@ -8564,7 +8564,7 @@
       <c r="A288" s="6">
         <v>45277</v>
       </c>
-      <c r="B288" s="187" t="s">
+      <c r="B288" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C288" s="186"/>
@@ -8578,7 +8578,7 @@
       <c r="A289" s="6">
         <v>45278</v>
       </c>
-      <c r="B289" s="185" t="s">
+      <c r="B289" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C289" s="186"/>
@@ -8642,7 +8642,7 @@
       <c r="A295" s="6">
         <v>45284</v>
       </c>
-      <c r="B295" s="187" t="s">
+      <c r="B295" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C295" s="186"/>
@@ -8656,7 +8656,7 @@
       <c r="A296" s="6">
         <v>45285</v>
       </c>
-      <c r="B296" s="185" t="s">
+      <c r="B296" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C296" s="186"/>
@@ -8720,7 +8720,7 @@
       <c r="A302" s="6">
         <v>45291</v>
       </c>
-      <c r="B302" s="187" t="s">
+      <c r="B302" s="185" t="s">
         <v>68</v>
       </c>
       <c r="C302" s="186"/>
@@ -8734,7 +8734,7 @@
       <c r="A303" s="6">
         <v>45292</v>
       </c>
-      <c r="B303" s="185" t="s">
+      <c r="B303" s="187" t="s">
         <v>13</v>
       </c>
       <c r="C303" s="186"/>
@@ -12241,18 +12241,53 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="B141:H141"/>
-    <mergeCell ref="B142:H142"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B123:H123"/>
-    <mergeCell ref="B127:H127"/>
+    <mergeCell ref="B289:H289"/>
+    <mergeCell ref="B295:H295"/>
+    <mergeCell ref="B296:H296"/>
+    <mergeCell ref="B302:H302"/>
+    <mergeCell ref="B303:H303"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="B219:H219"/>
+    <mergeCell ref="B190:H190"/>
+    <mergeCell ref="B205:H205"/>
+    <mergeCell ref="B191:H191"/>
+    <mergeCell ref="B197:H197"/>
+    <mergeCell ref="B198:H198"/>
+    <mergeCell ref="B204:H204"/>
+    <mergeCell ref="B288:H288"/>
+    <mergeCell ref="B275:H275"/>
+    <mergeCell ref="B281:H281"/>
+    <mergeCell ref="B282:H282"/>
+    <mergeCell ref="B267:H267"/>
+    <mergeCell ref="B268:H268"/>
+    <mergeCell ref="B274:H274"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B184:H184"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B225:H225"/>
+    <mergeCell ref="B226:H226"/>
+    <mergeCell ref="B232:H232"/>
+    <mergeCell ref="B233:H233"/>
+    <mergeCell ref="B239:H239"/>
     <mergeCell ref="B260:H260"/>
     <mergeCell ref="B261:H261"/>
     <mergeCell ref="B240:H240"/>
@@ -12260,11 +12295,11 @@
     <mergeCell ref="B247:H247"/>
     <mergeCell ref="B253:H253"/>
     <mergeCell ref="B254:H254"/>
-    <mergeCell ref="B225:H225"/>
-    <mergeCell ref="B226:H226"/>
-    <mergeCell ref="B232:H232"/>
-    <mergeCell ref="B233:H233"/>
-    <mergeCell ref="B239:H239"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B123:H123"/>
+    <mergeCell ref="B127:H127"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B109:H109"/>
     <mergeCell ref="B113:H113"/>
@@ -12275,48 +12310,13 @@
     <mergeCell ref="B95:H95"/>
     <mergeCell ref="B99:H99"/>
     <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B184:H184"/>
-    <mergeCell ref="B288:H288"/>
-    <mergeCell ref="B275:H275"/>
-    <mergeCell ref="B281:H281"/>
-    <mergeCell ref="B282:H282"/>
-    <mergeCell ref="B267:H267"/>
-    <mergeCell ref="B268:H268"/>
-    <mergeCell ref="B274:H274"/>
-    <mergeCell ref="B211:H211"/>
-    <mergeCell ref="B212:H212"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B219:H219"/>
-    <mergeCell ref="B190:H190"/>
-    <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B191:H191"/>
-    <mergeCell ref="B197:H197"/>
-    <mergeCell ref="B198:H198"/>
-    <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B289:H289"/>
-    <mergeCell ref="B295:H295"/>
-    <mergeCell ref="B296:H296"/>
-    <mergeCell ref="B302:H302"/>
-    <mergeCell ref="B303:H303"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="B141:H141"/>
+    <mergeCell ref="B142:H142"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25131,9 +25131,9 @@
   </sheetPr>
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -25179,7 +25179,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A2" s="198">
+      <c r="A2" s="195">
         <v>1</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -25214,7 +25214,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A3" s="192"/>
+      <c r="A3" s="194"/>
       <c r="B3" s="59" t="s">
         <v>348</v>
       </c>
@@ -25250,7 +25250,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A4" s="192"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="59" t="s">
         <v>353</v>
       </c>
@@ -25283,7 +25283,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A5" s="192"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="59" t="s">
         <v>356</v>
       </c>
@@ -25316,7 +25316,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A6" s="192"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="61" t="s">
         <v>363</v>
       </c>
@@ -25345,7 +25345,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A7" s="199"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="63" t="s">
         <v>367</v>
       </c>
@@ -25370,7 +25370,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A8" s="198">
+      <c r="A8" s="195">
         <v>2</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -25408,7 +25408,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A9" s="192"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="59" t="s">
         <v>368</v>
       </c>
@@ -25441,7 +25441,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A10" s="192"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="59" t="s">
         <v>375</v>
       </c>
@@ -25474,7 +25474,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A11" s="192"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="59" t="s">
         <v>372</v>
       </c>
@@ -25507,7 +25507,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A12" s="192"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="61" t="s">
         <v>381</v>
       </c>
@@ -25536,7 +25536,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A13" s="199"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="61"/>
       <c r="C13" s="184"/>
       <c r="D13" s="62"/>
@@ -25716,7 +25716,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A19" s="196"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="74"/>
       <c r="C19" s="184"/>
       <c r="D19" s="64"/>
@@ -25737,7 +25737,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A20" s="200">
+      <c r="A20" s="199">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -25902,7 +25902,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A25" s="196"/>
+      <c r="A25" s="198"/>
       <c r="B25" s="78" t="s">
         <v>367</v>
       </c>
@@ -25934,7 +25934,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A26" s="200">
+      <c r="A26" s="199">
         <v>5</v>
       </c>
       <c r="B26" s="81" t="s">
@@ -26097,7 +26097,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A31" s="196"/>
+      <c r="A31" s="198"/>
       <c r="B31" s="78" t="s">
         <v>367</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>822</v>
       </c>
       <c r="G35" s="92">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>443</v>
@@ -26291,7 +26291,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A37" s="196"/>
+      <c r="A37" s="198"/>
       <c r="B37" s="61"/>
       <c r="C37" s="184" t="e">
         <v>#VALUE!</v>
@@ -26463,7 +26463,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A43" s="196"/>
+      <c r="A43" s="198"/>
       <c r="B43" s="61"/>
       <c r="C43" s="184"/>
       <c r="D43" s="73"/>
@@ -26647,7 +26647,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A49" s="196"/>
+      <c r="A49" s="198"/>
       <c r="B49" s="61"/>
       <c r="C49" s="184" t="e">
         <v>#VALUE!</v>
@@ -26825,7 +26825,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A55" s="196"/>
+      <c r="A55" s="198"/>
       <c r="B55" s="61"/>
       <c r="C55" s="184"/>
       <c r="D55" s="73"/>
@@ -27007,7 +27007,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A61" s="196"/>
+      <c r="A61" s="198"/>
       <c r="B61" s="61" t="s">
         <v>494</v>
       </c>
@@ -27187,7 +27187,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A67" s="196"/>
+      <c r="A67" s="198"/>
       <c r="B67" s="61"/>
       <c r="C67" s="184"/>
       <c r="D67" s="73"/>
@@ -27369,7 +27369,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A73" s="196"/>
+      <c r="A73" s="198"/>
       <c r="B73" s="1"/>
       <c r="C73" s="184"/>
       <c r="E73" s="1"/>
@@ -27543,7 +27543,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A79" s="196"/>
+      <c r="A79" s="198"/>
       <c r="B79" s="103"/>
       <c r="C79" s="184"/>
       <c r="D79" s="104"/>
@@ -27729,7 +27729,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A85" s="196"/>
+      <c r="A85" s="198"/>
       <c r="B85" s="103" t="s">
         <v>367</v>
       </c>
@@ -27917,7 +27917,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A91" s="196"/>
+      <c r="A91" s="198"/>
       <c r="B91" s="1" t="s">
         <v>367</v>
       </c>
@@ -28103,7 +28103,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A97" s="196"/>
+      <c r="A97" s="198"/>
       <c r="B97" s="111" t="s">
         <v>367</v>
       </c>
@@ -28289,7 +28289,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A103" s="196"/>
+      <c r="A103" s="198"/>
       <c r="B103" s="111"/>
       <c r="C103" s="184" t="e">
         <v>#VALUE!</v>
@@ -28312,7 +28312,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A104" s="195">
+      <c r="A104" s="200">
         <v>18</v>
       </c>
       <c r="B104" s="112" t="s">
@@ -28475,7 +28475,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A109" s="196"/>
+      <c r="A109" s="198"/>
       <c r="B109" s="103" t="s">
         <v>367</v>
       </c>
@@ -28651,7 +28651,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A115" s="196"/>
+      <c r="A115" s="198"/>
       <c r="B115" s="1" t="s">
         <v>367</v>
       </c>
@@ -28757,7 +28757,7 @@
       <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A121" s="196"/>
+      <c r="A121" s="198"/>
       <c r="B121" s="103"/>
       <c r="C121" s="184"/>
       <c r="D121" s="110"/>
@@ -28872,7 +28872,7 @@
       <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A127" s="196"/>
+      <c r="A127" s="198"/>
       <c r="B127" s="103" t="s">
         <v>367</v>
       </c>
@@ -28886,16 +28886,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A103"/>
     <mergeCell ref="A104:A109"/>
     <mergeCell ref="A110:A115"/>
     <mergeCell ref="A116:A121"/>
@@ -28907,6 +28897,16 @@
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="A74:A79"/>
     <mergeCell ref="A80:A85"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39830,7 +39830,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
